--- a/data/AB_Data_1v1_oldEval+Tables.xlsx
+++ b/data/AB_Data_1v1_oldEval+Tables.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="AB_Data_1v1_oldEval" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -113,13 +113,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -981,18 +981,18 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="1"/>
+      <c r="H6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1014,22 +1014,22 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1053,22 +1053,22 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>39.12903225806452</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>38.315789473684212</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>16.736842105263158</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>12.935483870967742</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>26.193548387096776</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>21.578947368421051</v>
       </c>
     </row>
@@ -1134,18 +1134,18 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1" t="s">
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="1"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1167,22 +1167,22 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1206,22 +1206,22 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>29</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>18</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <v>1531</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>1129</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>30.62</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>22.58</v>
       </c>
     </row>
